--- a/UAL/output/dept1705/Daniel Martin_2023.xlsx
+++ b/UAL/output/dept1705/Daniel Martin_2023.xlsx
@@ -795,42 +795,42 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Daniel M. Martin</t>
+          <t>Pablo Fernández-Velasco, Gonzalo Díaz Soto, Paloma Pérez López, Beatriz Torres, Daniel de Luis</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Technical University of Darmstadt, Institute for Production Engineering and Forming Machines, Otto-Berndt-Straße 2, 64287 Darmstadt, Germany</t>
+          <t>Centro de Investigación de Endocrinología y Nutrición Clinica (CIENC), Facultad de Medicina. Universidad de Valladolid, Valladolid, Spain; Endocrinology and Nutrition Department, Hospital Clínico Universitario de Valladolid, Valladolid, Spain; Centro de Investigación de Endocrinología y Nutrición Clinica (CIENC), Facultad de Medicina. Universidad de Valladolid, Valladolid, Spain; Endocrinology and Nutrition Department, Hospital Clínico Universitario de Valladolid, Valladolid, Spain; Centro de Investigación de Endocrinología y Nutrición Clinica (CIENC), Facultad de Medicina. Universidad de Valladolid, Valladolid, Spain; Endocrinology and Nutrition Department, Hospital Clínico Universitario de Valladolid, Valladolid, Spain; Centro de Investigación de Endocrinología y Nutrición Clinica (CIENC), Facultad de Medicina. Universidad de Valladolid, Valladolid, Spain; Endocrinology and Nutrition Department, Hospital Clínico Universitario de Valladolid, Valladolid, Spain; Centro de Investigación de Endocrinología y Nutrición Clinica (CIENC), Facultad de Medicina. Universidad de Valladolid, Valladolid, Spain; Endocrinology and Nutrition Department, Hospital Clínico Universitario de Valladolid, Valladolid, Spain</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4365449600</t>
+          <t>https://openalex.org/W4321599846</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Influence of process parameters on mechanical properties of lamination stacks produced by interlocking</t>
+          <t>Predictive value and dynamic risk stratification of high sensitive basal or stimulated thyroglobulin assay in a long-term thyroid carcinoma cohort</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2023-04-19</t>
+          <t>2023-02-23</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Materials research proceedings</t>
+          <t>Endocrine</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Springer Science+Business Media</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.21741/9781644902479-121</t>
+          <t>https://doi.org/10.1007/s12020-023-03320-y</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -865,12 +865,12 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36820996</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.21741/9781644902479-121</t>
+          <t>https://doi.org/10.1007/s12020-023-03320-y</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -882,42 +882,42 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Pablo Fernández-Velasco, Gonzalo Díaz Soto, Paloma Pérez López, Beatriz Torres, Daniel de Luis</t>
+          <t>Daniel M. Martin</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Centro de Investigación de Endocrinología y Nutrición Clinica (CIENC), Facultad de Medicina. Universidad de Valladolid, Valladolid, Spain; Endocrinology and Nutrition Department, Hospital Clínico Universitario de Valladolid, Valladolid, Spain; Centro de Investigación de Endocrinología y Nutrición Clinica (CIENC), Facultad de Medicina. Universidad de Valladolid, Valladolid, Spain; Endocrinology and Nutrition Department, Hospital Clínico Universitario de Valladolid, Valladolid, Spain; Centro de Investigación de Endocrinología y Nutrición Clinica (CIENC), Facultad de Medicina. Universidad de Valladolid, Valladolid, Spain; Endocrinology and Nutrition Department, Hospital Clínico Universitario de Valladolid, Valladolid, Spain; Centro de Investigación de Endocrinología y Nutrición Clinica (CIENC), Facultad de Medicina. Universidad de Valladolid, Valladolid, Spain; Endocrinology and Nutrition Department, Hospital Clínico Universitario de Valladolid, Valladolid, Spain; Centro de Investigación de Endocrinología y Nutrición Clinica (CIENC), Facultad de Medicina. Universidad de Valladolid, Valladolid, Spain; Endocrinology and Nutrition Department, Hospital Clínico Universitario de Valladolid, Valladolid, Spain</t>
+          <t>Technical University of Darmstadt, Institute for Production Engineering and Forming Machines, Otto-Berndt-Straße 2, 64287 Darmstadt, Germany</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4321599846</t>
+          <t>https://openalex.org/W4365449600</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Predictive value and dynamic risk stratification of high sensitive basal or stimulated thyroglobulin assay in a long-term thyroid carcinoma cohort</t>
+          <t>Influence of process parameters on mechanical properties of lamination stacks produced by interlocking</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2023-02-23</t>
+          <t>2023-04-19</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Endocrine</t>
+          <t>Materials research proceedings</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Springer Science+Business Media</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/s12020-023-03320-y</t>
+          <t>https://doi.org/10.21741/9781644902479-121</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -952,12 +952,12 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/36820996</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/s12020-023-03320-y</t>
+          <t>https://doi.org/10.21741/9781644902479-121</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -1056,7 +1056,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Fernando Gómez-Peralta, Edelmiro Menéndez Torre, Santiago Javier Armesilla Conde, Ignacio Conget, Anna Novials, Isabel Serrano Olmedo, Francisco J. Tinahones, Florentino Carral San Laureano, Martı́n López de la Torre, Ángel Carazo, Joana Acha, Orosia Bandrés, Lluís Masmiquel, Francisca Payeras, I. Gomez, Juan Bayo, Coral Montalbán, Daniel de Luis, Gonzalo Díaz Soto, A. López-Guzmán, Estefania Santos-Mazo, Luís Miguel Jiménez, Visitación Álvarez, Benito Blanco Samper, Ana Chico, Belén Dalama, Manuel Pérez-Maraver, Berta Soldevila, Ismael Capel Flores, Marta García, Wifredo Ricart, Ana Megía Colet, Elisenda Climent Biescas, Francisco Javier Ampudia‐Blasco, Antonio Hernández‐Mijares, Carlos Sánchez-Juan, Antonio Picó, José Ramón Domínguez Escribano, Carmiña Fajardo, Teresa Pedro, Pablo Abellán, Paolo Rossetti, Francisco M. Morales-Pérez, F. Criado Enciso, Alfonso González, Diego Bellido Guerrero, Reyes Luna Cano, José Manuel García López, Victor Andía, José Alfonso Arranz Martín, Sharona Azriel, Marta Botella Serrano, Miguel Brito Sanfiel, Alfonso Calle Pascual, Francisco Javier Gómez, Manuel Ángel Gargallo Fernández, Fátima Illán, Ana Sánchez Martínez, Lluís Forga Llenas, Sonia Gaztambide, Clara Gómez, Laura Oleaga, María Salinas, Juan Pedro López-Siguero, Ana Gómez-Gila, Alfonso María Lechuga Sancho, Marta Ferrer Lozano, Isolina Riaño Galán, María Caimarí, Ricardo Cardona, María Clemente León, Gemma Carreras González, Francisco Javier Arroyo Díez, Pablo Segado Rodríguez, Belén Roldán, Noemí González Pérez del Villar, Purificación Ros Pérez, Itxaso Rica, Ignacio Díez López</t>
+          <t>Fernando Gómez-Peralta, Edelmiro Menéndez Torre, Santiago Javier Armesilla Conde, Ignacio Conget, Anna Novials, Isabel Serrano Olmedo, Francisco J. Tinahones, Florentino Carral San Laureano, Martı́n López de la Torre, Ángel Carazo, Joana Acha, Orosia Bandrés, Lluís Masmiquel, Francisca Payeras, I. Gomez, Juan Bayo, Coral Montalbán, Daniel de Luis, Gonzalo Díaz Soto, A. López-Guzmán, Estefania Santos-Mazo, Luís Miguel Jiménez, Visitación Álvarez, Benito Blanco Samper, Ana Chico, Belén Dalama, Manuel Pérez-Maraver, Berta Soldevila, Ismael Capel Flores, Marta García, Wifredo Ricart, Ana Megía Colet, Elisenda Climent Biescas, Francisco Javier Ampudia‐Blasco, Antonio Hernández‐Mijares, Carlos Sánchez-Juan, Antonio Picó, José Ramón Domínguez Escribano, Carmiña Fajardo, Teresa Pedro, Pablo Abellán, Paolo Rossetti, Francisco M. Morales-Pérez, F. Criado Enciso, Alfonso González, Diego Bellido Guerrero, Reyes Luna Cano, José Manuel García López, Víctor Andía, José Alfonso Arranz Martín, Sharona Azriel, Marta Botella Serrano, Miguel Brito Sanfiel, Alfonso Calle Pascual, Francisco Javier Gómez, Manuel Ángel Gargallo Fernández, Fátima Illán, Ana Sánchez Martínez, Lluís Forga Llenas, Sonia Gaztambide, Clara Gómez, Laura Oleaga, María Salinas, Juan Pedro López-Siguero, Ana Gómez-Gila, Alfonso María Lechuga Sancho, Marta Ferrer Lozano, Isolina Riaño Galán, María Caimari, Ricardo Cardona, María Clemente León, Gemma Carreras González, Francisco Javier Arroyo Díez, Pablo Segado Rodríguez, Belén Roldán, Noemí González Pérez del Villar, Purificación Ros Pérez, Itxaso Rica, Ignacio Díez López</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
